--- a/docs/Sprint2/Sprint_2_Requirements_Stack_Spreadsheet.xlsx
+++ b/docs/Sprint2/Sprint_2_Requirements_Stack_Spreadsheet.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29421"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29429"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="2117" documentId="11_02078A957BEAFF278134109E45203DE73DED4125" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B38D531-F53A-4EDE-8A49-DD2FF7155D46}"/>
+  <xr:revisionPtr revIDLastSave="2168" documentId="11_02078A957BEAFF278134109E45203DE73DED4125" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08209D60-2F4A-4A7D-B269-353193953611}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Requirement ID</t>
   </si>
@@ -102,10 +102,16 @@
     <t>If the user's bet does not win, they lose the amount the allocated for betting, exiting to the main menu if they run out of chips.</t>
   </si>
   <si>
-    <t>The user should have the option to leave at any point, with no chip forfeiting like in Blackjack or Poker.</t>
+    <t>The user should have the option to leave at any point, with chip forfeiting like in Blackjack or Poker.</t>
   </si>
   <si>
     <t>The user should be shown Roulette instructions if requested.</t>
+  </si>
+  <si>
+    <t>The user wants sounds effect to feel more engaged.</t>
+  </si>
+  <si>
+    <t>The user should be able to review what bets they have placed so that they can keep track of what they've bet chips on.</t>
   </si>
 </sst>
 </file>
@@ -160,7 +166,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -235,24 +241,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -631,30 +661,30 @@
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>13</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>17</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="5">
+      <c r="A4" s="6">
         <v>4.2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>2</v>
       </c>
       <c r="D4" s="1">
@@ -665,7 +695,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="4">
+      <c r="A5" s="6">
         <v>4.3</v>
       </c>
       <c r="B5" t="s">
@@ -682,13 +712,13 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="5">
+      <c r="A6" s="9">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>8</v>
       </c>
       <c r="D6" s="1">
@@ -699,13 +729,13 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="5">
+      <c r="A7" s="9">
         <v>4.5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>8</v>
       </c>
       <c r="D7" s="1">
@@ -716,7 +746,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="1">
+      <c r="A8" s="11">
         <v>4.5999999999999996</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -750,7 +780,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="1">
+      <c r="A10" s="12">
         <v>4.8</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -767,30 +797,30 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="11">
+      <c r="A11" s="9">
         <v>4.9000000000000004</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="7">
-        <v>8</v>
-      </c>
-      <c r="D11" s="7">
+      <c r="C11" s="6">
+        <v>8</v>
+      </c>
+      <c r="D11" s="6">
         <v>25</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="12">
+      <c r="A12" s="13">
         <v>4.0999999999999996</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>8</v>
       </c>
       <c r="D12" s="1">
@@ -801,7 +831,7 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="4">
+      <c r="A13" s="1">
         <v>4.1100000000000003</v>
       </c>
       <c r="B13" t="s">
@@ -818,7 +848,7 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="1">
+      <c r="A14" s="12">
         <v>4.12</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -835,24 +865,24 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="1">
+      <c r="A15" s="9">
         <v>4.13</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="9">
-        <v>8</v>
-      </c>
-      <c r="D15" s="9">
+      <c r="C15" s="8">
+        <v>8</v>
+      </c>
+      <c r="D15" s="8">
         <v>29</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="1">
+      <c r="A16" s="9">
         <v>4.1399999999999997</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -869,7 +899,7 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="1">
+      <c r="A17" s="9">
         <v>4.1500000000000004</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -886,7 +916,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="1">
+      <c r="A18" s="9">
         <v>4.16</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -903,7 +933,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="1">
+      <c r="A19" s="9">
         <v>4.17</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -920,19 +950,19 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="7">
+      <c r="A20" s="9">
         <v>4.18</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="7">
-        <v>2</v>
-      </c>
-      <c r="D20" s="7">
+      <c r="C20" s="6">
+        <v>2</v>
+      </c>
+      <c r="D20" s="6">
         <v>34</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="6">
         <v>2</v>
       </c>
     </row>
@@ -951,6 +981,50 @@
       </c>
       <c r="E21" s="1">
         <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="6">
+        <v>2</v>
+      </c>
+      <c r="D22" s="6">
+        <v>36</v>
+      </c>
+      <c r="E22" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>4.21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1">
+        <v>37</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="C25">
+        <f>SUM(C3:C21)</f>
+        <v>126</v>
+      </c>
+      <c r="D25">
+        <f>SUM(C3:C23)</f>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -959,12 +1033,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000D3F149E6A7DBD40B1F3F986E58509B1" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="420c3fa83f1c4d9b970947ca78a8affa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="21e15ac8-f22a-4a5b-9639-48c1445ab8df" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="47fe7d1151f9341df73d9739ceb30243" ns2:_="">
     <xsd:import namespace="21e15ac8-f22a-4a5b-9639-48c1445ab8df"/>
@@ -1102,23 +1185,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B9D7367-C041-418F-B92C-60D7E932EC4F}"/>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{132D5356-6665-48DF-ADF6-98768B39D727}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36E27909-0EE9-4CB6-9E8B-C9443C2EEE1B}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B9D7367-C041-418F-B92C-60D7E932EC4F}"/>
 </file>